--- a/output/aid_debt_by_year.xlsx
+++ b/output/aid_debt_by_year.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="aid_debt_by_year" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="data_limitations" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aid_debt_by_year!$A$1:$D$12</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">CommitmentYear</t>
   </si>
@@ -36,6 +37,15 @@
   <si>
     <t xml:space="preserve">aid_debt_ratio</t>
   </si>
+  <si>
+    <t xml:space="preserve">Sum of all USD Deflated Disbursements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum of USD Deflated Disbursements with non-missing commitment date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage covered</t>
+  </si>
 </sst>
 </file>
 
@@ -46,11 +56,12 @@
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
     <numFmt numFmtId="166" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -69,6 +80,12 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -116,7 +133,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -131,6 +148,14 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -205,7 +230,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -251,6 +276,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -345,11 +371,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="45810806"/>
-        <c:axId val="52426347"/>
+        <c:axId val="86836279"/>
+        <c:axId val="60637678"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45810806"/>
+        <c:axId val="86836279"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -377,7 +403,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52426347"/>
+        <c:crossAx val="60637678"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -385,7 +411,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52426347"/>
+        <c:axId val="60637678"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -400,7 +426,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -422,7 +448,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45810806"/>
+        <c:crossAx val="86836279"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -463,7 +489,7 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
@@ -481,9 +507,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>596520</xdr:colOff>
+      <xdr:colOff>596160</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>77760</xdr:rowOff>
+      <xdr:rowOff>77400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -492,7 +518,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="912960" y="2205000"/>
-        <a:ext cx="5758560" cy="3237120"/>
+        <a:ext cx="5758200" cy="3236760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -513,10 +539,10 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.66"/>
@@ -703,4 +729,54 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="38.88"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="n">
+        <v>4685766</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>3651340</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <f aca="false">B2/A2</f>
+        <v>0.779240790086402</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>